--- a/dummy database.xlsx
+++ b/dummy database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Product Id</t>
   </si>
   <si>
-    <t>varchar(3)</t>
-  </si>
-  <si>
     <t>Pname</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Ordered by</t>
   </si>
   <si>
-    <t>Pid(Foreign)</t>
-  </si>
-  <si>
     <t>Product ordered</t>
   </si>
   <si>
@@ -208,6 +202,39 @@
   </si>
   <si>
     <t>Processing/Ready/Complete/Error</t>
+  </si>
+  <si>
+    <t>Oid(Foreign)</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Pid(Multivalues)</t>
+  </si>
+  <si>
+    <t>Products Ordered</t>
+  </si>
+  <si>
+    <t>int(3)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Pid(Joins from below)</t>
+  </si>
+  <si>
+    <t>Multivalue</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>XStatus</t>
   </si>
 </sst>
 </file>
@@ -553,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.42578125" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -580,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -665,13 +692,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,10 +709,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,13 +720,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -710,7 +737,7 @@
         <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
         <v>1000</v>
@@ -718,7 +745,7 @@
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -726,13 +753,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,13 +770,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,13 +787,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -776,10 +812,13 @@
       <c r="D18" s="3">
         <v>0.34027777777777773</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -787,25 +826,25 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -813,25 +852,25 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -839,25 +878,25 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -865,13 +904,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="1">
-        <v>101</v>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E24" s="4">
         <v>43355</v>
@@ -883,7 +922,79 @@
         <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
